--- a/Daily/Forecast/Non-Stationarity/Square Log-Price/Nippon_tel.xlsx
+++ b/Daily/Forecast/Non-Stationarity/Square Log-Price/Nippon_tel.xlsx
@@ -417,13 +417,13 @@
         <v>2584</v>
       </c>
       <c r="C2">
-        <v>31.00195723820998</v>
+        <v>31.00349157290101</v>
       </c>
       <c r="D2">
-        <v>29.42545211030053</v>
+        <v>29.42614841582177</v>
       </c>
       <c r="E2">
-        <v>32.57846236611943</v>
+        <v>32.58083472998025</v>
       </c>
       <c r="F2">
         <v>31.17543103017886</v>
@@ -437,13 +437,13 @@
         <v>2585</v>
       </c>
       <c r="C3">
-        <v>31.18026080119064</v>
+        <v>31.17249059284928</v>
       </c>
       <c r="D3">
-        <v>29.60404645952602</v>
+        <v>29.59543863499207</v>
       </c>
       <c r="E3">
-        <v>32.75647514285525</v>
+        <v>32.74954255070649</v>
       </c>
       <c r="F3">
         <v>31.04890055831492</v>
@@ -457,13 +457,13 @@
         <v>2586</v>
       </c>
       <c r="C4">
-        <v>31.03942530464519</v>
+        <v>31.04593990250333</v>
       </c>
       <c r="D4">
-        <v>29.46350761224036</v>
+        <v>29.46918570167215</v>
       </c>
       <c r="E4">
-        <v>32.61534299705001</v>
+        <v>32.62269410333451</v>
       </c>
       <c r="F4">
         <v>31.00646051256641</v>
@@ -477,13 +477,13 @@
         <v>2587</v>
       </c>
       <c r="C5">
-        <v>31.00158928994368</v>
+        <v>31.00349369111351</v>
       </c>
       <c r="D5">
-        <v>29.42597569844847</v>
+        <v>29.42704353153288</v>
       </c>
       <c r="E5">
-        <v>32.5772028814389</v>
+        <v>32.57994385069413</v>
       </c>
       <c r="F5">
         <v>31.21734757079539</v>
@@ -497,13 +497,13 @@
         <v>2588</v>
       </c>
       <c r="C6">
-        <v>31.22416174729644</v>
+        <v>31.21441617612814</v>
       </c>
       <c r="D6">
-        <v>29.64883067366168</v>
+        <v>29.63824908533688</v>
       </c>
       <c r="E6">
-        <v>32.79949282093119</v>
+        <v>32.7905832669194</v>
       </c>
       <c r="F6">
         <v>31.17543103017886</v>
@@ -517,13 +517,13 @@
         <v>2589</v>
       </c>
       <c r="C7">
-        <v>31.16984984645537</v>
+        <v>31.17249338227932</v>
       </c>
       <c r="D7">
-        <v>29.59482191581285</v>
+        <v>29.59663000242972</v>
       </c>
       <c r="E7">
-        <v>32.7448777770979</v>
+        <v>32.74835676212891</v>
       </c>
       <c r="F7">
         <v>30.96388736351072</v>
@@ -537,13 +537,13 @@
         <v>2590</v>
       </c>
       <c r="C8">
-        <v>30.95090725243688</v>
+        <v>30.96091558398398</v>
       </c>
       <c r="D8">
-        <v>29.37616343145295</v>
+        <v>29.38533597634581</v>
       </c>
       <c r="E8">
-        <v>32.5256510734208</v>
+        <v>32.53649519162214</v>
       </c>
       <c r="F8">
         <v>31.09120840087821</v>
@@ -557,13 +557,13 @@
         <v>2591</v>
       </c>
       <c r="C9">
-        <v>31.09446551343942</v>
+        <v>31.08825807027315</v>
       </c>
       <c r="D9">
-        <v>29.52001634439336</v>
+        <v>29.51297455348418</v>
       </c>
       <c r="E9">
-        <v>32.66891468248547</v>
+        <v>32.66354158706211</v>
       </c>
       <c r="F9">
         <v>31.17543103017886</v>
@@ -577,13 +577,13 @@
         <v>2592</v>
       </c>
       <c r="C10">
-        <v>31.175925544231</v>
+        <v>31.17249538161764</v>
       </c>
       <c r="D10">
-        <v>29.60177703755829</v>
+        <v>29.59751219371802</v>
       </c>
       <c r="E10">
-        <v>32.75007405090371</v>
+        <v>32.74747856951727</v>
       </c>
       <c r="F10">
         <v>31.09120840087821</v>
@@ -597,13 +597,13 @@
         <v>2593</v>
       </c>
       <c r="C11">
-        <v>31.08393324099055</v>
+        <v>31.08825954550554</v>
       </c>
       <c r="D11">
-        <v>29.51008492014763</v>
+        <v>29.5135769783926</v>
       </c>
       <c r="E11">
-        <v>32.65778156183347</v>
+        <v>32.66294211261848</v>
       </c>
       <c r="F11">
         <v>31.00646051256641</v>
@@ -617,13 +617,13 @@
         <v>2594</v>
       </c>
       <c r="C12">
-        <v>30.99951152865312</v>
+        <v>31.00349854508003</v>
       </c>
       <c r="D12">
-        <v>29.42596377494447</v>
+        <v>29.42911638503696</v>
       </c>
       <c r="E12">
-        <v>32.57305928236178</v>
+        <v>32.57788070512311</v>
       </c>
       <c r="F12">
         <v>31.04890055831492</v>
@@ -637,13 +637,13 @@
         <v>2595</v>
       </c>
       <c r="C13">
-        <v>31.04789946618154</v>
+        <v>31.04594625684134</v>
       </c>
       <c r="D13">
-        <v>29.47465378375754</v>
+        <v>29.4718665061192</v>
       </c>
       <c r="E13">
-        <v>32.62114514860554</v>
+        <v>32.62002600756347</v>
       </c>
       <c r="F13">
         <v>31.04890055831492</v>
@@ -657,13 +657,13 @@
         <v>2596</v>
       </c>
       <c r="C14">
-        <v>31.04563467405962</v>
+        <v>31.04594702031942</v>
       </c>
       <c r="D14">
-        <v>29.47269203415791</v>
+        <v>29.47217046876285</v>
       </c>
       <c r="E14">
-        <v>32.61857731396132</v>
+        <v>32.619723571876</v>
       </c>
       <c r="F14">
         <v>30.96388736351072</v>
@@ -677,13 +677,13 @@
         <v>2597</v>
       </c>
       <c r="C15">
-        <v>30.95673465887</v>
+        <v>30.9609207693358</v>
       </c>
       <c r="D15">
-        <v>29.38409174122627</v>
+        <v>29.38744408145944</v>
       </c>
       <c r="E15">
-        <v>32.52937757651374</v>
+        <v>32.53439745721215</v>
       </c>
       <c r="F15">
         <v>30.96388736351072</v>
@@ -697,13 +697,13 @@
         <v>2598</v>
       </c>
       <c r="C16">
-        <v>30.96089839865352</v>
+        <v>30.96092153140535</v>
       </c>
       <c r="D16">
-        <v>29.3885581504324</v>
+        <v>29.38774769315257</v>
       </c>
       <c r="E16">
-        <v>32.53323864687465</v>
+        <v>32.53409536965814</v>
       </c>
       <c r="F16">
         <v>30.96388736351072</v>
@@ -717,13 +717,13 @@
         <v>2599</v>
       </c>
       <c r="C17">
-        <v>30.96070428730582</v>
+        <v>30.9609222930835</v>
       </c>
       <c r="D17">
-        <v>29.3886665535808</v>
+        <v>29.38805112965063</v>
       </c>
       <c r="E17">
-        <v>32.53274202103084</v>
+        <v>32.53379345651636</v>
       </c>
       <c r="F17">
         <v>30.92118020151351</v>
@@ -737,13 +737,13 @@
         <v>2600</v>
       </c>
       <c r="C18">
-        <v>30.91600087559005</v>
+        <v>30.91820903090371</v>
       </c>
       <c r="D18">
-        <v>29.34426475024118</v>
+        <v>29.34563962998063</v>
       </c>
       <c r="E18">
-        <v>32.48773700093892</v>
+        <v>32.49077843182679</v>
       </c>
       <c r="F18">
         <v>31.04890055831492</v>
@@ -757,13 +757,13 @@
         <v>2601</v>
       </c>
       <c r="C19">
-        <v>31.05181411525074</v>
+        <v>31.04595070763884</v>
       </c>
       <c r="D19">
-        <v>29.48037186595688</v>
+        <v>29.47367561626311</v>
       </c>
       <c r="E19">
-        <v>32.6232563645446</v>
+        <v>32.61822579901457</v>
       </c>
       <c r="F19">
         <v>31.04890055831492</v>
@@ -777,13 +777,13 @@
         <v>2602</v>
       </c>
       <c r="C20">
-        <v>31.04545644800859</v>
+        <v>31.04595146879137</v>
       </c>
       <c r="D20">
-        <v>29.47431619172376</v>
+        <v>29.47397853055262</v>
       </c>
       <c r="E20">
-        <v>32.61659670429344</v>
+        <v>32.6179244070301</v>
       </c>
       <c r="F20">
         <v>31.04890055831492</v>
@@ -797,13 +797,13 @@
         <v>2603</v>
       </c>
       <c r="C21">
-        <v>31.04575494687051</v>
+        <v>31.04595222955113</v>
       </c>
       <c r="D21">
-        <v>29.47491650827563</v>
+        <v>29.47428127031577</v>
       </c>
       <c r="E21">
-        <v>32.6165933854654</v>
+        <v>32.6176231887865</v>
       </c>
       <c r="F21">
         <v>31.04890055831492</v>
@@ -817,13 +817,13 @@
         <v>2604</v>
       </c>
       <c r="C22">
-        <v>31.04574182840543</v>
+        <v>31.04595298991854</v>
       </c>
       <c r="D22">
-        <v>29.4752050345416</v>
+        <v>29.47458383572013</v>
       </c>
       <c r="E22">
-        <v>32.61627862226926</v>
+        <v>32.61732214411695</v>
       </c>
       <c r="F22">
         <v>31.17543103017886</v>
@@ -837,13 +837,13 @@
         <v>2605</v>
       </c>
       <c r="C23">
-        <v>31.17821648033695</v>
+        <v>31.17250496938248</v>
       </c>
       <c r="D23">
-        <v>29.60797327089264</v>
+        <v>29.60142958441146</v>
       </c>
       <c r="E23">
-        <v>32.74845968978127</v>
+        <v>32.74358035435349</v>
       </c>
       <c r="F23">
         <v>31.09120840087821</v>
@@ -857,13 +857,13 @@
         <v>2606</v>
       </c>
       <c r="C24">
-        <v>31.08383828092676</v>
+        <v>31.08826917562484</v>
       </c>
       <c r="D24">
-        <v>29.51389281687117</v>
+        <v>29.5174921533877</v>
       </c>
       <c r="E24">
-        <v>32.65378374498236</v>
+        <v>32.65904619786198</v>
       </c>
       <c r="F24">
         <v>31.09120840087821</v>
@@ -877,13 +877,13 @@
         <v>2607</v>
       </c>
       <c r="C25">
-        <v>31.08825632480255</v>
+        <v>31.0882699351219</v>
       </c>
       <c r="D25">
-        <v>29.51861196625829</v>
+        <v>29.51779419914387</v>
       </c>
       <c r="E25">
-        <v>32.65790068334681</v>
+        <v>32.65874567109992</v>
       </c>
       <c r="F25">
         <v>31.2591354162419</v>
@@ -897,13 +897,13 @@
         <v>2608</v>
       </c>
       <c r="C26">
-        <v>31.26386224675501</v>
+        <v>31.25622545822235</v>
       </c>
       <c r="D26">
-        <v>29.69450515242183</v>
+        <v>29.68603714869264</v>
       </c>
       <c r="E26">
-        <v>32.8332193410882</v>
+        <v>32.82641376775207</v>
       </c>
       <c r="F26">
         <v>31.87107067410966</v>
@@ -917,13 +917,13 @@
         <v>2609</v>
       </c>
       <c r="C27">
-        <v>31.89638906387664</v>
+        <v>31.86826740610868</v>
       </c>
       <c r="D27">
-        <v>30.3271598582275</v>
+        <v>30.29820281469296</v>
       </c>
       <c r="E27">
-        <v>33.46561826952578</v>
+        <v>33.43833199752439</v>
       </c>
       <c r="F27">
         <v>32.2255337315674</v>
@@ -937,13 +937,13 @@
         <v>2610</v>
       </c>
       <c r="C28">
-        <v>32.2379400604615</v>
+        <v>32.22279729465949</v>
       </c>
       <c r="D28">
-        <v>30.66896076758032</v>
+        <v>30.65297368810361</v>
       </c>
       <c r="E28">
-        <v>33.80691935334267</v>
+        <v>33.79262090121536</v>
       </c>
       <c r="F28">
         <v>32.49505693341118</v>
@@ -957,13 +957,13 @@
         <v>2611</v>
       </c>
       <c r="C29">
-        <v>32.50414646058361</v>
+        <v>32.49237373971091</v>
       </c>
       <c r="D29">
-        <v>30.93543668539931</v>
+        <v>30.92281604573066</v>
       </c>
       <c r="E29">
-        <v>34.0728562357679</v>
+        <v>34.06193143369115</v>
       </c>
       <c r="F29">
         <v>35.25433618666462</v>
@@ -977,13 +977,13 @@
         <v>2612</v>
       </c>
       <c r="C30">
-        <v>35.38407717205352</v>
+        <v>35.25226980760811</v>
       </c>
       <c r="D30">
-        <v>33.81212688502579</v>
+        <v>33.67944287282298</v>
       </c>
       <c r="E30">
-        <v>36.95602745908126</v>
+        <v>36.82509674239324</v>
       </c>
       <c r="F30">
         <v>36.04665991456915</v>
@@ -997,13 +997,13 @@
         <v>2613</v>
       </c>
       <c r="C31">
-        <v>36.07739359456069</v>
+        <v>36.04481649554196</v>
       </c>
       <c r="D31">
-        <v>34.50554105399626</v>
+        <v>34.47199568336831</v>
       </c>
       <c r="E31">
-        <v>37.64924613512512</v>
+        <v>37.61763730771561</v>
       </c>
       <c r="F31">
         <v>38.24369750528331</v>
@@ -1017,13 +1017,13 @@
         <v>2614</v>
       </c>
       <c r="C32">
-        <v>38.35358425410323</v>
+        <v>38.24255038592047</v>
       </c>
       <c r="D32">
-        <v>36.77984137502141</v>
+        <v>36.66777349911926</v>
       </c>
       <c r="E32">
-        <v>39.92732713318506</v>
+        <v>39.81732727272168</v>
       </c>
       <c r="F32">
         <v>37.0764674952055</v>
@@ -1037,13 +1037,13 @@
         <v>2615</v>
       </c>
       <c r="C33">
-        <v>37.01320558611751</v>
+        <v>37.07491447148936</v>
       </c>
       <c r="D33">
-        <v>35.43900603547319</v>
+        <v>35.49980473670284</v>
       </c>
       <c r="E33">
-        <v>38.58740513676182</v>
+        <v>38.65002420627589</v>
       </c>
       <c r="F33">
         <v>35.83760761157406</v>
@@ -1057,13 +1057,13 @@
         <v>2616</v>
       </c>
       <c r="C34">
-        <v>35.77631533924428</v>
+        <v>35.83566822872075</v>
       </c>
       <c r="D34">
-        <v>34.20177419064284</v>
+        <v>34.2601462072916</v>
       </c>
       <c r="E34">
-        <v>37.35085648784572</v>
+        <v>37.4111902501499</v>
       </c>
       <c r="F34">
         <v>35.62546993662646</v>
@@ -1077,13 +1077,13 @@
         <v>2617</v>
       </c>
       <c r="C35">
-        <v>35.61542766543712</v>
+        <v>35.62347052019425</v>
       </c>
       <c r="D35">
-        <v>34.04117681962796</v>
+        <v>34.04822896441785</v>
       </c>
       <c r="E35">
-        <v>37.18967851124629</v>
+        <v>37.19871207597064</v>
       </c>
       <c r="F35">
         <v>35.28563451164622</v>
@@ -1097,13 +1097,13 @@
         <v>2618</v>
       </c>
       <c r="C36">
-        <v>35.26645029684027</v>
+        <v>35.28354103798885</v>
       </c>
       <c r="D36">
-        <v>33.69244945130551</v>
+        <v>33.70854720888582</v>
       </c>
       <c r="E36">
-        <v>36.84045114237502</v>
+        <v>36.85853486709189</v>
       </c>
       <c r="F36">
         <v>34.5477779204127</v>
@@ -1117,13 +1117,13 @@
         <v>2619</v>
       </c>
       <c r="C37">
-        <v>34.50856339782807</v>
+        <v>34.54548937345376</v>
       </c>
       <c r="D37">
-        <v>32.93462252542133</v>
+        <v>32.9705442316402</v>
       </c>
       <c r="E37">
-        <v>36.08250427023481</v>
+        <v>36.12043451526732</v>
       </c>
       <c r="F37">
         <v>34.34881515716728</v>
@@ -1137,13 +1137,13 @@
         <v>2620</v>
       </c>
       <c r="C38">
-        <v>34.33791335035551</v>
+        <v>34.3464776588238</v>
       </c>
       <c r="D38">
-        <v>32.76426101691604</v>
+        <v>32.77181510442196</v>
       </c>
       <c r="E38">
-        <v>35.91156568379498</v>
+        <v>35.92114021322564</v>
       </c>
       <c r="F38">
         <v>34.51481109230957</v>
@@ -1157,13 +1157,13 @@
         <v>2621</v>
       </c>
       <c r="C39">
-        <v>34.52108094006697</v>
+        <v>34.51251540836134</v>
       </c>
       <c r="D39">
-        <v>32.94771426766819</v>
+        <v>32.93814009008528</v>
       </c>
       <c r="E39">
-        <v>36.09444761246576</v>
+        <v>36.0868907266374</v>
       </c>
       <c r="F39">
         <v>35.41014678866778</v>
@@ -1177,13 +1177,13 @@
         <v>2622</v>
       </c>
       <c r="C40">
-        <v>35.45303132687769</v>
+        <v>35.40808342232236</v>
       </c>
       <c r="D40">
-        <v>33.87959685759875</v>
+        <v>33.83363352994396</v>
       </c>
       <c r="E40">
-        <v>37.02646579615662</v>
+        <v>36.98253331470075</v>
       </c>
       <c r="F40">
         <v>34.34881515716728</v>
@@ -1197,13 +1197,13 @@
         <v>2623</v>
       </c>
       <c r="C41">
-        <v>34.29097411582778</v>
+        <v>34.34647097983283</v>
       </c>
       <c r="D41">
-        <v>32.71727256419535</v>
+        <v>32.77179952542934</v>
       </c>
       <c r="E41">
-        <v>35.8646756674602</v>
+        <v>35.92114243423632</v>
       </c>
       <c r="F41">
         <v>34.44864625452165</v>
@@ -1217,13 +1217,13 @@
         <v>2624</v>
       </c>
       <c r="C42">
-        <v>34.45372342417</v>
+        <v>34.44632740850197</v>
       </c>
       <c r="D42">
-        <v>32.88031019152149</v>
+        <v>32.87195118191323</v>
       </c>
       <c r="E42">
-        <v>36.02713665681851</v>
+        <v>36.02070363509072</v>
       </c>
       <c r="F42">
         <v>34.04501633734106</v>
@@ -1237,13 +1237,13 @@
         <v>2625</v>
       </c>
       <c r="C43">
-        <v>34.02190544555712</v>
+        <v>34.04259956430639</v>
       </c>
       <c r="D43">
-        <v>32.44871423444567</v>
+        <v>32.46844840605119</v>
       </c>
       <c r="E43">
-        <v>35.59509665666856</v>
+        <v>35.61675072256159</v>
       </c>
       <c r="F43">
         <v>33.62947561501802</v>
@@ -1257,13 +1257,13 @@
         <v>2626</v>
       </c>
       <c r="C44">
-        <v>33.60700152498958</v>
+        <v>33.62696266229209</v>
       </c>
       <c r="D44">
-        <v>32.03403832490903</v>
+        <v>32.05303196282037</v>
       </c>
       <c r="E44">
-        <v>35.17996472507012</v>
+        <v>35.2008933617638</v>
       </c>
       <c r="F44">
         <v>33.09209196496531</v>
@@ -1277,13 +1277,13 @@
         <v>2627</v>
       </c>
       <c r="C45">
-        <v>33.06327885648631</v>
+        <v>33.08946105506755</v>
       </c>
       <c r="D45">
-        <v>31.49049188240878</v>
+        <v>31.51569706964751</v>
       </c>
       <c r="E45">
-        <v>34.63606583056385</v>
+        <v>34.6632250404876</v>
       </c>
       <c r="F45">
         <v>33.62947561501802</v>
@@ -1297,13 +1297,13 @@
         <v>2628</v>
       </c>
       <c r="C46">
-        <v>33.6546775398085</v>
+        <v>33.62696156884378</v>
       </c>
       <c r="D46">
-        <v>32.08204088806311</v>
+        <v>32.05336161959864</v>
       </c>
       <c r="E46">
-        <v>35.22731419155388</v>
+        <v>35.20056151808893</v>
       </c>
       <c r="F46">
         <v>33.01885110697383</v>
@@ -1317,13 +1317,13 @@
         <v>2629</v>
       </c>
       <c r="C47">
-        <v>32.98448313274137</v>
+        <v>33.01620344984883</v>
       </c>
       <c r="D47">
-        <v>31.4119577899439</v>
+        <v>31.44273113782026</v>
       </c>
       <c r="E47">
-        <v>34.55700847553884</v>
+        <v>34.5896757618774</v>
       </c>
       <c r="F47">
         <v>33.62947561501802</v>
@@ -1337,13 +1337,13 @@
         <v>2630</v>
       </c>
       <c r="C48">
-        <v>33.65796383642534</v>
+        <v>33.6269597230247</v>
       </c>
       <c r="D48">
-        <v>32.08554434496632</v>
+        <v>32.0536120339819</v>
       </c>
       <c r="E48">
-        <v>35.23038332788436</v>
+        <v>35.2003074120675</v>
       </c>
       <c r="F48">
         <v>33.41699559537506</v>
@@ -1357,13 +1357,13 @@
         <v>2631</v>
       </c>
       <c r="C49">
-        <v>33.40233556895776</v>
+        <v>33.41443299657575</v>
       </c>
       <c r="D49">
-        <v>31.8301879453888</v>
+        <v>31.84136388388818</v>
       </c>
       <c r="E49">
-        <v>34.97448319252672</v>
+        <v>34.98750210926333</v>
       </c>
       <c r="F49">
         <v>34.48176733347365</v>
@@ -1377,13 +1377,13 @@
         <v>2632</v>
       </c>
       <c r="C50">
-        <v>34.53101504213598</v>
+        <v>34.47944928702127</v>
       </c>
       <c r="D50">
-        <v>32.95862542157279</v>
+        <v>32.90615067753945</v>
       </c>
       <c r="E50">
-        <v>36.10340466269916</v>
+        <v>36.0527478965031</v>
       </c>
       <c r="F50">
         <v>34.80878878280969</v>
@@ -1397,13 +1397,13 @@
         <v>2633</v>
       </c>
       <c r="C51">
-        <v>34.8195879609498</v>
+        <v>34.80655356603364</v>
       </c>
       <c r="D51">
-        <v>33.24746129828413</v>
+        <v>33.23350346441084</v>
       </c>
       <c r="E51">
-        <v>36.39171462361546</v>
+        <v>36.37960366765644</v>
       </c>
       <c r="F51">
         <v>35.1284521173254</v>
@@ -1417,13 +1417,13 @@
         <v>2634</v>
       </c>
       <c r="C52">
-        <v>35.14087994966411</v>
+        <v>35.126300707098</v>
       </c>
       <c r="D52">
-        <v>33.5690075324752</v>
+        <v>33.5535012102175</v>
       </c>
       <c r="E52">
-        <v>36.71275236685302</v>
+        <v>36.6991002039785</v>
       </c>
       <c r="F52">
         <v>35.1284521173254</v>
@@ -1437,13 +1437,13 @@
         <v>2635</v>
       </c>
       <c r="C53">
-        <v>35.12526960036393</v>
+        <v>35.12630141058458</v>
       </c>
       <c r="D53">
-        <v>33.55369540651738</v>
+        <v>33.55380038380718</v>
       </c>
       <c r="E53">
-        <v>36.69684379421047</v>
+        <v>36.69880243736198</v>
       </c>
       <c r="F53">
         <v>35.62546993662646</v>
@@ -1457,13 +1457,13 @@
         <v>2636</v>
       </c>
       <c r="C54">
-        <v>35.64730938570041</v>
+        <v>35.62345427812102</v>
       </c>
       <c r="D54">
-        <v>34.07591734863686</v>
+        <v>34.05113611151621</v>
       </c>
       <c r="E54">
-        <v>37.21870142276396</v>
+        <v>37.19577244472582</v>
       </c>
       <c r="F54">
         <v>36.07627827785772</v>
@@ -1477,13 +1477,13 @@
         <v>2637</v>
       </c>
       <c r="C55">
-        <v>36.09487932509894</v>
+        <v>36.07439122569923</v>
       </c>
       <c r="D55">
-        <v>34.52370007841335</v>
+        <v>34.50227623770962</v>
       </c>
       <c r="E55">
-        <v>37.66605857178453</v>
+        <v>37.64650621368884</v>
       </c>
       <c r="F55">
         <v>36.22346428158011</v>
@@ -1497,13 +1497,13 @@
         <v>2638</v>
       </c>
       <c r="C56">
-        <v>36.22745948829232</v>
+        <v>36.22162109942101</v>
       </c>
       <c r="D56">
-        <v>34.65657042593376</v>
+        <v>34.64979382358231</v>
       </c>
       <c r="E56">
-        <v>37.79834855065088</v>
+        <v>37.7934483752597</v>
       </c>
       <c r="F56">
         <v>36.96558765682527</v>
@@ -1517,13 +1517,13 @@
         <v>2639</v>
       </c>
       <c r="C57">
-        <v>36.99963887518803</v>
+        <v>36.96397032593975</v>
       </c>
       <c r="D57">
-        <v>35.42879514434588</v>
+        <v>35.39218464927698</v>
       </c>
       <c r="E57">
-        <v>38.57048260603018</v>
+        <v>38.53575600260251</v>
       </c>
       <c r="F57">
         <v>37.51174663869534</v>
@@ -1537,13 +1537,13 @@
         <v>2640</v>
       </c>
       <c r="C58">
-        <v>37.53510993560196</v>
+        <v>37.51030633862229</v>
       </c>
       <c r="D58">
-        <v>35.96444249305388</v>
+        <v>35.93867951034547</v>
       </c>
       <c r="E58">
-        <v>39.10577737815004</v>
+        <v>39.08193316689911</v>
       </c>
       <c r="F58">
         <v>37.85611961248083</v>
@@ -1557,13 +1557,13 @@
         <v>2641</v>
       </c>
       <c r="C59">
-        <v>37.87022618199109</v>
+        <v>37.8547959430497</v>
       </c>
       <c r="D59">
-        <v>36.29980849077469</v>
+        <v>36.28341135684359</v>
       </c>
       <c r="E59">
-        <v>39.44064387320748</v>
+        <v>39.42618052925582</v>
       </c>
       <c r="F59">
         <v>39.81506867789708</v>
@@ -1577,13 +1577,13 @@
         <v>2642</v>
       </c>
       <c r="C60">
-        <v>39.91152728792652</v>
+        <v>39.81445749790744</v>
       </c>
       <c r="D60">
-        <v>38.33965748494608</v>
+        <v>38.24159379736874</v>
       </c>
       <c r="E60">
-        <v>41.48339709090695</v>
+        <v>41.38732119844614</v>
       </c>
       <c r="F60">
         <v>41.95117098963676</v>
@@ -1597,13 +1597,13 @@
         <v>2643</v>
       </c>
       <c r="C61">
-        <v>42.06209828643846</v>
+        <v>41.94617859610954</v>
       </c>
       <c r="D61">
-        <v>40.48861371969118</v>
+        <v>40.37147705005455</v>
       </c>
       <c r="E61">
-        <v>43.63558285318573</v>
+        <v>43.52088014216453</v>
       </c>
       <c r="F61">
         <v>39.81506867789708</v>
@@ -1617,13 +1617,13 @@
         <v>2644</v>
       </c>
       <c r="C62">
-        <v>39.70274978008793</v>
+        <v>39.81441005889562</v>
       </c>
       <c r="D62">
-        <v>38.12724253240786</v>
+        <v>38.23793040259446</v>
       </c>
       <c r="E62">
-        <v>41.27825702776801</v>
+        <v>41.39088971519677</v>
       </c>
       <c r="F62">
         <v>39.65358578719883</v>
@@ -1637,13 +1637,13 @@
         <v>2645</v>
       </c>
       <c r="C63">
-        <v>39.64993073259829</v>
+        <v>39.65286281103214</v>
       </c>
       <c r="D63">
-        <v>38.07472026632108</v>
+        <v>38.07666928258429</v>
       </c>
       <c r="E63">
-        <v>41.22514119887551</v>
+        <v>41.22905633947998</v>
       </c>
       <c r="F63">
         <v>40.31156593185928</v>
@@ -1657,13 +1657,13 @@
         <v>2646</v>
       </c>
       <c r="C64">
-        <v>40.34359497691877</v>
+        <v>40.31110880190233</v>
       </c>
       <c r="D64">
-        <v>38.76848056240697</v>
+        <v>38.73501337330288</v>
       </c>
       <c r="E64">
-        <v>41.91870939143057</v>
+        <v>41.88720423050178</v>
       </c>
       <c r="F64">
         <v>39.60712621935657</v>
@@ -1677,13 +1677,13 @@
         <v>2647</v>
       </c>
       <c r="C65">
-        <v>39.56959005834489</v>
+        <v>39.60638061102462</v>
       </c>
       <c r="D65">
-        <v>37.99452334615574</v>
+        <v>38.03035481952387</v>
       </c>
       <c r="E65">
-        <v>41.14465677053405</v>
+        <v>41.18240640252537</v>
       </c>
       <c r="F65">
         <v>39.65358578719883</v>
@@ -1697,13 +1697,13 @@
         <v>2648</v>
       </c>
       <c r="C66">
-        <v>39.65649909401462</v>
+        <v>39.65285885110766</v>
       </c>
       <c r="D66">
-        <v>38.08172655542612</v>
+        <v>38.0771296502853</v>
       </c>
       <c r="E66">
-        <v>41.23127163260312</v>
+        <v>41.22858805193002</v>
       </c>
       <c r="F66">
         <v>39.27780271563715</v>
@@ -1717,13 +1717,13 @@
         <v>2649</v>
       </c>
       <c r="C67">
-        <v>39.25781376746502</v>
+        <v>39.2769287193432</v>
       </c>
       <c r="D67">
-        <v>37.68327244937442</v>
+        <v>37.70143225133562</v>
       </c>
       <c r="E67">
-        <v>40.83235508555563</v>
+        <v>40.85242518735078</v>
       </c>
       <c r="F67">
         <v>38.67098744862999</v>
@@ -1737,13 +1737,13 @@
         <v>2650</v>
       </c>
       <c r="C68">
-        <v>38.64037576347148</v>
+        <v>38.66988449630738</v>
       </c>
       <c r="D68">
-        <v>37.06597314078655</v>
+        <v>37.09451644612314</v>
       </c>
       <c r="E68">
-        <v>40.2147783861564</v>
+        <v>40.24525254649161</v>
       </c>
       <c r="F68">
         <v>38.39591982887919</v>
@@ -1757,13 +1757,13 @@
         <v>2651</v>
       </c>
       <c r="C69">
-        <v>38.38210661414924</v>
+        <v>38.3947176023696</v>
       </c>
       <c r="D69">
-        <v>36.80797350760206</v>
+        <v>36.81961219411195</v>
       </c>
       <c r="E69">
-        <v>39.95623972069641</v>
+        <v>39.96982301062726</v>
       </c>
       <c r="F69">
         <v>38.26917713842084</v>
@@ -1777,13 +1777,13 @@
         <v>2652</v>
       </c>
       <c r="C70">
-        <v>38.26184221991156</v>
+        <v>38.26793032325582</v>
       </c>
       <c r="D70">
-        <v>36.68800005908736</v>
+        <v>36.6931146628986</v>
       </c>
       <c r="E70">
-        <v>39.83568438073576</v>
+        <v>39.84274598361304</v>
       </c>
       <c r="F70">
         <v>38.62135381697468</v>
@@ -1797,13 +1797,13 @@
         <v>2653</v>
       </c>
       <c r="C71">
-        <v>38.63759098213056</v>
+        <v>38.62023297626835</v>
       </c>
       <c r="D71">
-        <v>37.0639860262393</v>
+        <v>37.04565672960953</v>
       </c>
       <c r="E71">
-        <v>40.21119593802182</v>
+        <v>40.19480922292718</v>
       </c>
       <c r="F71">
         <v>38.03825966537964</v>
@@ -1817,13 +1817,13 @@
         <v>2654</v>
       </c>
       <c r="C72">
-        <v>38.00686591902593</v>
+        <v>38.03693086800688</v>
       </c>
       <c r="D72">
-        <v>36.4333922267539</v>
+        <v>36.46249565411807</v>
       </c>
       <c r="E72">
-        <v>39.58033961129796</v>
+        <v>39.6113660818957</v>
       </c>
       <c r="F72">
         <v>37.59193826533976</v>
@@ -1837,13 +1837,13 @@
         <v>2655</v>
       </c>
       <c r="C73">
-        <v>37.5693778240487</v>
+        <v>37.59045775774728</v>
       </c>
       <c r="D73">
-        <v>35.99612142696166</v>
+        <v>36.01622810470584</v>
       </c>
       <c r="E73">
-        <v>39.14263422113574</v>
+        <v>39.16468741078872</v>
       </c>
       <c r="F73">
         <v>37.59193826533976</v>
@@ -1857,13 +1857,13 @@
         <v>2656</v>
       </c>
       <c r="C74">
-        <v>37.59110942897539</v>
+        <v>37.59045830763092</v>
       </c>
       <c r="D74">
-        <v>36.01814899484781</v>
+        <v>36.01652503495652</v>
       </c>
       <c r="E74">
-        <v>39.16406986310296</v>
+        <v>39.16439158030531</v>
       </c>
       <c r="F74">
         <v>37.61857155383512</v>
@@ -1877,13 +1877,13 @@
         <v>2657</v>
       </c>
       <c r="C75">
-        <v>37.61799571493571</v>
+        <v>37.61710099281697</v>
       </c>
       <c r="D75">
-        <v>36.04533096668743</v>
+        <v>36.04346357122986</v>
       </c>
       <c r="E75">
-        <v>39.19066046318399</v>
+        <v>39.19073841440408</v>
       </c>
       <c r="F75">
         <v>37.59193826533976</v>
@@ -1897,13 +1897,13 @@
         <v>2658</v>
       </c>
       <c r="C76">
-        <v>37.58869549238548</v>
+        <v>37.5904593999486</v>
       </c>
       <c r="D76">
-        <v>36.01632629484696</v>
+        <v>36.01711773457878</v>
       </c>
       <c r="E76">
-        <v>39.16106468992401</v>
+        <v>39.16380106531842</v>
       </c>
       <c r="F76">
         <v>37.6981823146666</v>
@@ -1917,13 +1917,13 @@
         <v>2659</v>
       </c>
       <c r="C77">
-        <v>37.70170814419526</v>
+        <v>37.69673934801188</v>
       </c>
       <c r="D77">
-        <v>36.12962914145374</v>
+        <v>36.12368823567351</v>
       </c>
       <c r="E77">
-        <v>39.27378714693678</v>
+        <v>39.26979046035025</v>
       </c>
       <c r="F77">
         <v>37.45804049641767</v>
@@ -1937,13 +1937,13 @@
         <v>2660</v>
       </c>
       <c r="C78">
-        <v>37.4439525328437</v>
+        <v>37.45651826290924</v>
       </c>
       <c r="D78">
-        <v>35.87214177718906</v>
+        <v>35.88373671450438</v>
       </c>
       <c r="E78">
-        <v>39.01576328849834</v>
+        <v>39.0292998113141</v>
       </c>
       <c r="F78">
         <v>37.72462349163425</v>
@@ -1957,13 +1957,13 @@
         <v>2661</v>
       </c>
       <c r="C79">
-        <v>37.73663030103963</v>
+        <v>37.72318981406288</v>
       </c>
       <c r="D79">
-        <v>36.16507874190359</v>
+        <v>36.15067083446738</v>
       </c>
       <c r="E79">
-        <v>39.30818186017567</v>
+        <v>39.29570879365839</v>
       </c>
       <c r="F79">
         <v>38.84340827900454</v>
@@ -1977,13 +1977,13 @@
         <v>2662</v>
       </c>
       <c r="C80">
-        <v>38.89711675298978</v>
+        <v>38.84236255829098</v>
       </c>
       <c r="D80">
-        <v>37.32529836812023</v>
+        <v>37.2695633668558</v>
       </c>
       <c r="E80">
-        <v>40.46893513785933</v>
+        <v>40.41516174972616</v>
       </c>
       <c r="F80">
         <v>37.72462349163425</v>
@@ -1997,13 +1997,13 @@
         <v>2663</v>
       </c>
       <c r="C81">
-        <v>37.66600710957796</v>
+        <v>37.72317853799814</v>
       </c>
       <c r="D81">
-        <v>36.09385373781022</v>
+        <v>36.15010195110372</v>
       </c>
       <c r="E81">
-        <v>39.2381604813457</v>
+        <v>39.29625512489255</v>
       </c>
       <c r="F81">
         <v>38.37065814934662</v>
@@ -2017,13 +2017,13 @@
         <v>2664</v>
       </c>
       <c r="C82">
-        <v>38.40231826115409</v>
+        <v>38.3694340457459</v>
       </c>
       <c r="D82">
-        <v>36.83023253923325</v>
+        <v>36.79646062663559</v>
       </c>
       <c r="E82">
-        <v>39.97440398307492</v>
+        <v>39.94240746485622</v>
       </c>
       <c r="F82">
         <v>37.72462349163425</v>
@@ -2037,13 +2037,13 @@
         <v>2665</v>
       </c>
       <c r="C83">
-        <v>37.69102378541385</v>
+        <v>37.72317550971686</v>
       </c>
       <c r="D83">
-        <v>36.11902250648156</v>
+        <v>36.15030677011935</v>
       </c>
       <c r="E83">
-        <v>39.26302506434615</v>
+        <v>39.29604424931437</v>
       </c>
       <c r="F83">
         <v>37.59193826533976</v>
@@ -2057,13 +2057,13 @@
         <v>2666</v>
       </c>
       <c r="C84">
-        <v>37.58535502638156</v>
+        <v>37.59044664402758</v>
       </c>
       <c r="D84">
-        <v>36.01364411940688</v>
+        <v>36.01786503081722</v>
       </c>
       <c r="E84">
-        <v>39.15706593335625</v>
+        <v>39.16302825723794</v>
       </c>
       <c r="F84">
         <v>37.67169339046208</v>
@@ -2077,13 +2077,13 @@
         <v>2667</v>
       </c>
       <c r="C85">
-        <v>37.67383036128166</v>
+        <v>37.6702287203538</v>
       </c>
       <c r="D85">
-        <v>36.10241072795831</v>
+        <v>36.09793893440141</v>
       </c>
       <c r="E85">
-        <v>39.245249994605</v>
+        <v>39.2425185063062</v>
       </c>
       <c r="F85">
         <v>37.51174663869534</v>
@@ -2097,13 +2097,13 @@
         <v>2668</v>
       </c>
       <c r="C86">
-        <v>37.50218473547373</v>
+        <v>37.51022958962966</v>
       </c>
       <c r="D86">
-        <v>35.93104757929618</v>
+        <v>35.93822298976208</v>
       </c>
       <c r="E86">
-        <v>39.07332189165128</v>
+        <v>39.08223618949724</v>
       </c>
       <c r="F86">
         <v>37.32290602751225</v>
@@ -2117,13 +2117,13 @@
         <v>2669</v>
       </c>
       <c r="C87">
-        <v>37.31247219329926</v>
+        <v>37.32132802044996</v>
       </c>
       <c r="D87">
-        <v>35.74161467606578</v>
+        <v>35.74959988033095</v>
       </c>
       <c r="E87">
-        <v>38.88332971053273</v>
+        <v>38.89305616056897</v>
       </c>
       <c r="F87">
         <v>37.32290602751225</v>
@@ -2137,13 +2137,13 @@
         <v>2670</v>
       </c>
       <c r="C88">
-        <v>37.32137502107289</v>
+        <v>37.32132859517417</v>
       </c>
       <c r="D88">
-        <v>35.7508116496189</v>
+        <v>35.74989481259225</v>
       </c>
       <c r="E88">
-        <v>38.89193839252688</v>
+        <v>38.89276237775609</v>
       </c>
       <c r="F88">
         <v>37.35003304180795</v>
@@ -2157,13 +2157,13 @@
         <v>2671</v>
       </c>
       <c r="C89">
-        <v>37.34936635293543</v>
+        <v>37.34846492116559</v>
       </c>
       <c r="D89">
-        <v>35.77909663725667</v>
+        <v>35.7773249549436</v>
       </c>
       <c r="E89">
-        <v>38.91963606861418</v>
+        <v>38.91960488738759</v>
       </c>
       <c r="F89">
         <v>37.64515653267487</v>
@@ -2177,13 +2177,13 @@
         <v>2672</v>
       </c>
       <c r="C90">
-        <v>37.6571184738023</v>
+        <v>37.64368501190945</v>
       </c>
       <c r="D90">
-        <v>36.08710259256178</v>
+        <v>36.07279880606372</v>
       </c>
       <c r="E90">
-        <v>39.22713435504281</v>
+        <v>39.21457121775519</v>
       </c>
       <c r="F90">
         <v>37.64515653267487</v>
@@ -2197,13 +2197,13 @@
         <v>2673</v>
       </c>
       <c r="C91">
-        <v>37.64267783080656</v>
+        <v>37.64368555654629</v>
       </c>
       <c r="D91">
-        <v>36.07295559063197</v>
+        <v>36.07309322048366</v>
       </c>
       <c r="E91">
-        <v>39.21240007098114</v>
+        <v>39.21427789260891</v>
       </c>
       <c r="F91">
         <v>38.21817379385359</v>
@@ -2217,13 +2217,13 @@
         <v>2674</v>
       </c>
       <c r="C92">
-        <v>38.24342260881866</v>
+        <v>38.21689621251335</v>
       </c>
       <c r="D92">
-        <v>36.67384240675864</v>
+        <v>36.64644667195124</v>
       </c>
       <c r="E92">
-        <v>39.81300281087869</v>
+        <v>39.78734575307547</v>
       </c>
       <c r="F92">
         <v>38.81889906861966</v>
@@ -2237,13 +2237,13 @@
         <v>2675</v>
       </c>
       <c r="C93">
-        <v>38.84455419027857</v>
+        <v>38.81783448736013</v>
       </c>
       <c r="D93">
-        <v>37.27511609821209</v>
+        <v>37.24751285371867</v>
       </c>
       <c r="E93">
-        <v>40.41399228234506</v>
+        <v>40.38815612100159</v>
       </c>
       <c r="F93">
         <v>38.08988826408224</v>
@@ -2257,13 +2257,13 @@
         <v>2676</v>
       </c>
       <c r="C94">
-        <v>38.05280874950582</v>
+        <v>38.08856288806505</v>
       </c>
       <c r="D94">
-        <v>36.48340347247074</v>
+        <v>36.51829254107629</v>
       </c>
       <c r="E94">
-        <v>39.6222140265409</v>
+        <v>39.65883323505381</v>
       </c>
       <c r="F94">
         <v>39.67676161446704</v>
@@ -2277,13 +2277,13 @@
         <v>2677</v>
       </c>
       <c r="C95">
-        <v>39.74899788405912</v>
+        <v>39.67600693143249</v>
       </c>
       <c r="D95">
-        <v>38.17868134961645</v>
+        <v>38.10487796987428</v>
       </c>
       <c r="E95">
-        <v>41.31931441850179</v>
+        <v>41.2471358929907</v>
       </c>
       <c r="F95">
         <v>39.83799630107259</v>
@@ -2297,13 +2297,13 @@
         <v>2678</v>
       </c>
       <c r="C96">
-        <v>39.84087527979334</v>
+        <v>39.83730529380758</v>
       </c>
       <c r="D96">
-        <v>38.2708484030039</v>
+        <v>38.26645772301246</v>
       </c>
       <c r="E96">
-        <v>41.41090215658277</v>
+        <v>41.40815286460271</v>
       </c>
       <c r="F96">
         <v>38.96535129578975</v>
@@ -2317,13 +2317,13 @@
         <v>2679</v>
       </c>
       <c r="C97">
-        <v>38.92408269021726</v>
+        <v>38.96432275145518</v>
       </c>
       <c r="D97">
-        <v>37.35399888635607</v>
+        <v>37.39342147663611</v>
       </c>
       <c r="E97">
-        <v>40.49416649407845</v>
+        <v>40.53522402627425</v>
       </c>
       <c r="F97">
         <v>39.46687547915533</v>
@@ -2337,13 +2337,13 @@
         <v>2680</v>
       </c>
       <c r="C98">
-        <v>39.48992042794427</v>
+        <v>39.46603498738924</v>
       </c>
       <c r="D98">
-        <v>37.91999513537932</v>
+        <v>37.89531161782384</v>
       </c>
       <c r="E98">
-        <v>41.05984572050922</v>
+        <v>41.03675835695465</v>
       </c>
       <c r="F98">
         <v>40.08791567520723</v>
@@ -2357,13 +2357,13 @@
         <v>2681</v>
       </c>
       <c r="C99">
-        <v>40.11391526475303</v>
+        <v>40.08731811602865</v>
       </c>
       <c r="D99">
-        <v>38.54411982560845</v>
+        <v>38.51671135794516</v>
       </c>
       <c r="E99">
-        <v>41.6837107038976</v>
+        <v>41.65792487411213</v>
       </c>
       <c r="F99">
         <v>39.72300595341976</v>
@@ -2377,13 +2377,13 @@
         <v>2682</v>
       </c>
       <c r="C100">
-        <v>39.70421897776636</v>
+        <v>39.72226285944459</v>
       </c>
       <c r="D100">
-        <v>38.13464646338171</v>
+        <v>38.15188842838865</v>
       </c>
       <c r="E100">
-        <v>41.27379149215101</v>
+        <v>41.29263729050054</v>
       </c>
       <c r="F100">
         <v>39.90656967948691</v>
@@ -2397,13 +2397,13 @@
         <v>2683</v>
       </c>
       <c r="C101">
-        <v>39.91452908530632</v>
+        <v>39.9058991532779</v>
       </c>
       <c r="D101">
-        <v>38.34523041778035</v>
+        <v>38.33580191968672</v>
       </c>
       <c r="E101">
-        <v>41.48382775283229</v>
+        <v>41.47599638686908</v>
       </c>
       <c r="F101">
         <v>40.61920514021397</v>
@@ -2417,13 +2417,13 @@
         <v>2684</v>
       </c>
       <c r="C102">
-        <v>40.65011692036006</v>
+        <v>40.61882329406252</v>
       </c>
       <c r="D102">
-        <v>39.08088432913573</v>
+        <v>39.04878673685506</v>
       </c>
       <c r="E102">
-        <v>42.21934951158438</v>
+        <v>42.18885985126997</v>
       </c>
       <c r="F102">
         <v>41.25810155454258</v>
@@ -2437,13 +2437,13 @@
         <v>2685</v>
       </c>
       <c r="C103">
-        <v>41.2851928706556</v>
+        <v>41.25799216034687</v>
       </c>
       <c r="D103">
-        <v>39.71608431426974</v>
+        <v>39.68806184625868</v>
       </c>
       <c r="E103">
-        <v>42.85430142704146</v>
+        <v>42.82792247443506</v>
       </c>
       <c r="F103">
         <v>41.32053739671551</v>
@@ -2457,13 +2457,13 @@
         <v>2686</v>
       </c>
       <c r="C104">
-        <v>41.32158818970082</v>
+        <v>41.3204555386732</v>
       </c>
       <c r="D104">
-        <v>39.75277118978168</v>
+        <v>39.75081571351522</v>
       </c>
       <c r="E104">
-        <v>42.89040518961995</v>
+        <v>42.89009536383119</v>
       </c>
       <c r="F104">
         <v>41.00576250845651</v>
@@ -2477,13 +2477,13 @@
         <v>2687</v>
       </c>
       <c r="C105">
-        <v>40.99067559432977</v>
+        <v>41.00554280825228</v>
       </c>
       <c r="D105">
-        <v>39.42210509560799</v>
+        <v>39.43615000161812</v>
       </c>
       <c r="E105">
-        <v>42.55924609305156</v>
+        <v>42.57493561488644</v>
       </c>
       <c r="F105">
         <v>38.72045541196501</v>
@@ -2497,13 +2497,13 @@
         <v>2688</v>
       </c>
       <c r="C106">
-        <v>38.61334773532408</v>
+        <v>38.71930619007945</v>
       </c>
       <c r="D106">
-        <v>37.04272386328017</v>
+        <v>37.14783019483756</v>
       </c>
       <c r="E106">
-        <v>40.18397160736799</v>
+        <v>40.29078218532134</v>
       </c>
       <c r="F106">
         <v>38.74512763946294</v>
@@ -2517,13 +2517,13 @@
         <v>2689</v>
       </c>
       <c r="C107">
-        <v>38.74957606775705</v>
+        <v>38.74398773664677</v>
       </c>
       <c r="D107">
-        <v>37.17923634406819</v>
+        <v>37.17280367010297</v>
       </c>
       <c r="E107">
-        <v>40.31991579144592</v>
+        <v>40.31517180319056</v>
       </c>
       <c r="F107">
         <v>39.27780271563715</v>
@@ -2537,13 +2537,13 @@
         <v>2690</v>
       </c>
       <c r="C108">
-        <v>39.30083083875225</v>
+        <v>39.27685784471229</v>
       </c>
       <c r="D108">
-        <v>37.73065624635901</v>
+        <v>37.70583637431655</v>
       </c>
       <c r="E108">
-        <v>40.87100543114548</v>
+        <v>40.84787931510802</v>
       </c>
       <c r="F108">
         <v>39.06219052885648</v>
@@ -2557,13 +2557,13 @@
         <v>2691</v>
       </c>
       <c r="C109">
-        <v>39.04970497962651</v>
+        <v>39.06116545361488</v>
       </c>
       <c r="D109">
-        <v>37.4797962395739</v>
+        <v>37.4904149806987</v>
       </c>
       <c r="E109">
-        <v>40.61961371967912</v>
+        <v>40.63191592653106</v>
       </c>
       <c r="F109">
         <v>38.49653702905139</v>
@@ -2577,13 +2577,13 @@
         <v>2692</v>
       </c>
       <c r="C110">
-        <v>38.46918920927254</v>
+        <v>38.49530675243367</v>
       </c>
       <c r="D110">
-        <v>36.89943309404052</v>
+        <v>36.92470326886594</v>
       </c>
       <c r="E110">
-        <v>40.03894532450455</v>
+        <v>40.0659102360014</v>
       </c>
       <c r="F110">
         <v>38.59647450096893</v>
@@ -2597,13 +2597,13 @@
         <v>2693</v>
       </c>
       <c r="C111">
-        <v>38.60072155676028</v>
+        <v>38.59527997231663</v>
       </c>
       <c r="D111">
-        <v>37.03124955510481</v>
+        <v>37.02496347730145</v>
       </c>
       <c r="E111">
-        <v>40.17019355841575</v>
+        <v>40.16559646733182</v>
       </c>
       <c r="F111">
         <v>38.03825966537964</v>
@@ -2617,13 +2617,13 @@
         <v>2694</v>
       </c>
       <c r="C112">
-        <v>38.01041759143282</v>
+        <v>38.03687063730991</v>
       </c>
       <c r="D112">
-        <v>36.4410931865177</v>
+        <v>36.4667047740958</v>
       </c>
       <c r="E112">
-        <v>39.57974199634793</v>
+        <v>39.60703650052402</v>
       </c>
       <c r="F112">
         <v>37.64515653267487</v>
@@ -2637,13 +2637,13 @@
         <v>2695</v>
       </c>
       <c r="C113">
-        <v>37.62622106404687</v>
+        <v>37.64363665723494</v>
       </c>
       <c r="D113">
-        <v>36.05712730430403</v>
+        <v>36.07369249745971</v>
       </c>
       <c r="E113">
-        <v>39.19531482378972</v>
+        <v>39.21358081701018</v>
       </c>
       <c r="F113">
         <v>37.67169339046208</v>
@@ -2657,13 +2657,13 @@
         <v>2696</v>
       </c>
       <c r="C114">
-        <v>37.67185290827262</v>
+        <v>37.67018273981159</v>
       </c>
       <c r="D114">
-        <v>36.10304924019972</v>
+        <v>36.10052941162272</v>
       </c>
       <c r="E114">
-        <v>39.24065657634552</v>
+        <v>39.23983606800046</v>
       </c>
       <c r="F114">
         <v>37.59193826533976</v>
@@ -2677,13 +2677,13 @@
         <v>2697</v>
       </c>
       <c r="C115">
-        <v>37.58624763283056</v>
+        <v>37.59040215008334</v>
       </c>
       <c r="D115">
-        <v>36.01773193117366</v>
+        <v>36.02103707143204</v>
       </c>
       <c r="E115">
-        <v>39.15476333448747</v>
+        <v>39.15976722873464</v>
       </c>
       <c r="F115">
         <v>37.61857155383512</v>
@@ -2697,13 +2697,13 @@
         <v>2698</v>
       </c>
       <c r="C116">
-        <v>37.61810489584753</v>
+        <v>37.61704465107423</v>
       </c>
       <c r="D116">
-        <v>36.04987942913535</v>
+        <v>36.04797007806665</v>
       </c>
       <c r="E116">
-        <v>39.18633036255971</v>
+        <v>39.18611922408181</v>
       </c>
       <c r="F116">
         <v>38.29461285703113</v>
@@ -2717,13 +2717,13 @@
         <v>2699</v>
       </c>
       <c r="C117">
-        <v>38.32430247962042</v>
+        <v>38.29331082223004</v>
       </c>
       <c r="D117">
-        <v>36.75615995380547</v>
+        <v>36.72431877534535</v>
       </c>
       <c r="E117">
-        <v>39.89244500543537</v>
+        <v>39.86230286911474</v>
       </c>
       <c r="F117">
         <v>38.29461285703113</v>
@@ -2737,13 +2737,13 @@
         <v>2700</v>
       </c>
       <c r="C118">
-        <v>38.29148368268272</v>
+        <v>38.29331131559824</v>
       </c>
       <c r="D118">
-        <v>36.72363117604248</v>
+        <v>36.72460984893591</v>
       </c>
       <c r="E118">
-        <v>39.85933618932297</v>
+        <v>39.86201278226056</v>
       </c>
       <c r="F118">
         <v>37.85611961248083</v>
@@ -2757,13 +2757,13 @@
         <v>2701</v>
       </c>
       <c r="C119">
-        <v>37.83398882910033</v>
+        <v>37.85466927224972</v>
       </c>
       <c r="D119">
-        <v>36.26634061643161</v>
+        <v>36.28617159585699</v>
       </c>
       <c r="E119">
-        <v>39.40163704176906</v>
+        <v>39.42316694864244</v>
       </c>
       <c r="F119">
         <v>37.37710979599819</v>
@@ -2777,13 +2777,13 @@
         <v>2702</v>
       </c>
       <c r="C120">
-        <v>37.35372239160294</v>
+        <v>37.3755033389862</v>
       </c>
       <c r="D120">
-        <v>35.78626969791455</v>
+        <v>35.80719259585862</v>
       </c>
       <c r="E120">
-        <v>38.92117508529134</v>
+        <v>38.94381408211378</v>
       </c>
       <c r="F120">
         <v>36.96558765682527</v>
@@ -2797,13 +2797,13 @@
         <v>2703</v>
       </c>
       <c r="C121">
-        <v>36.94520515740269</v>
+        <v>36.96385270651375</v>
       </c>
       <c r="D121">
-        <v>35.3779741833634</v>
+        <v>35.39575597449237</v>
       </c>
       <c r="E121">
-        <v>38.51243613144198</v>
+        <v>38.53194943853512</v>
       </c>
       <c r="F121">
         <v>36.62778330861224</v>
@@ -2817,13 +2817,13 @@
         <v>2704</v>
       </c>
       <c r="C122">
-        <v>36.61057277802717</v>
+        <v>36.62594681091627</v>
       </c>
       <c r="D122">
-        <v>35.04358598405783</v>
+        <v>35.05808891030084</v>
       </c>
       <c r="E122">
-        <v>38.17755957199651</v>
+        <v>38.1938047115317</v>
       </c>
       <c r="F122">
         <v>36.42703612235108</v>
@@ -2837,13 +2837,13 @@
         <v>2705</v>
       </c>
       <c r="C123">
-        <v>36.41605729960261</v>
+        <v>36.42514123891402</v>
       </c>
       <c r="D123">
-        <v>34.84934491978946</v>
+        <v>34.85755525601476</v>
       </c>
       <c r="E123">
-        <v>37.98276967941575</v>
+        <v>37.99272722181327</v>
       </c>
       <c r="F123">
         <v>36.4558852456414</v>
@@ -2857,13 +2857,13 @@
         <v>2706</v>
       </c>
       <c r="C124">
-        <v>36.45544385320089</v>
+        <v>36.45399938818734</v>
       </c>
       <c r="D124">
-        <v>34.88902027073038</v>
+        <v>34.88670265415407</v>
       </c>
       <c r="E124">
-        <v>38.0218674356714</v>
+        <v>38.02129612222061</v>
       </c>
       <c r="F124">
         <v>36.19414697018976</v>
@@ -2877,13 +2877,13 @@
         <v>2707</v>
       </c>
       <c r="C125">
-        <v>36.17944327450374</v>
+        <v>36.19218627868745</v>
       </c>
       <c r="D125">
-        <v>34.61327811138224</v>
+        <v>34.6251484960728</v>
       </c>
       <c r="E125">
-        <v>37.74560843762524</v>
+        <v>37.75922406130211</v>
       </c>
       <c r="F125">
         <v>36.71297389923736</v>
@@ -2897,13 +2897,13 @@
         <v>2708</v>
       </c>
       <c r="C126">
-        <v>36.73577890553075</v>
+        <v>36.71116340662813</v>
       </c>
       <c r="D126">
-        <v>35.16977406032674</v>
+        <v>35.14429224398922</v>
       </c>
       <c r="E126">
-        <v>38.30178375073476</v>
+        <v>38.27803456926704</v>
       </c>
       <c r="F126">
         <v>36.88186991316681</v>
